--- a/data/energy_eigenvalues.xlsx
+++ b/data/energy_eigenvalues.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Research Projects\Computational Quantum Mechanics\Nikiforov-Uvarov Method\Notebooks\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Research Projects\Rovibrational Spectroscopy with NUFA\Notebooks\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0CB338A-59B3-45AC-9C6A-6C3DB6A3A987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0590E960-9CFA-40DA-9BFE-1F93E01745A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0E0AA9CB-ECEE-43CF-BF07-229E2DB1E272}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{0E0AA9CB-ECEE-43CF-BF07-229E2DB1E272}"/>
   </bookViews>
   <sheets>
     <sheet name="Low-Lying States" sheetId="1" r:id="rId1"/>
@@ -518,7 +518,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{430D7125-9F6C-4923-A11E-76F3D387E988}">
   <dimension ref="C3:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -1078,7 +1078,7 @@
   <dimension ref="B3:T43"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1972,8 +1972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CE6187-E79B-4E64-95E2-8CAD431BF341}">
   <dimension ref="B3:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
